--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -153,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -191,6 +184,51 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -199,10 +237,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,97 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,25 +334,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,151 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +537,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,30 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,11 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,165 +610,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1217,7 +1207,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
@@ -1273,7 +1263,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -1287,8 +1277,8 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1301,8 +1291,8 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+      <c r="B13" t="s">
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1315,8 +1305,8 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1329,7 +1319,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
@@ -1343,7 +1333,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
@@ -1357,7 +1347,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
@@ -1371,7 +1361,7 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
@@ -1385,8 +1375,8 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1399,7 +1389,7 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
@@ -1427,8 +1417,8 @@
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1441,7 +1431,7 @@
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
@@ -1455,7 +1445,7 @@
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
@@ -1469,7 +1459,7 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
@@ -1483,7 +1473,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
@@ -1497,7 +1487,7 @@
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
@@ -1576,7 +1566,7 @@
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
@@ -1590,7 +1580,7 @@
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
@@ -1604,7 +1594,7 @@
       <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>package</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>hashid</t>
+  </si>
+  <si>
+    <t>precisa mudar nome do arquivo</t>
   </si>
   <si>
     <t>hydra</t>
@@ -153,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -175,6 +178,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -183,14 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -200,120 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,37 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,145 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +538,47 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -564,58 +602,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,145 +627,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1273,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1286,10 +1289,16 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1301,9 +1310,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1314,10 +1323,13 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1331,7 +1343,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1345,7 +1357,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1359,7 +1371,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1373,7 +1385,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1401,7 +1413,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1415,7 +1427,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1429,7 +1441,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1443,7 +1455,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1457,7 +1469,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1471,7 +1483,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1485,7 +1497,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1499,7 +1511,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1516,7 +1528,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1530,7 +1542,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1544,7 +1556,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1556,15 +1568,15 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1578,7 +1590,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1592,7 +1604,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -76,9 +76,6 @@
     <t>hashid</t>
   </si>
   <si>
-    <t>precisa mudar nome do arquivo</t>
-  </si>
-  <si>
     <t>hydra</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>john</t>
+  </si>
+  <si>
+    <t>sem instalação</t>
   </si>
   <si>
     <t>linset</t>
@@ -157,9 +157,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,8 +178,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,128 +321,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -331,91 +331,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,91 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,35 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +572,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -608,17 +599,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,145 +627,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1180,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1220,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1232,6 +1232,9 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1276,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1292,13 +1295,10 @@
       <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1327,18 +1327,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1346,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1411,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1423,6 +1426,9 @@
       </c>
       <c r="D21" t="s">
         <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$38</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>package</t>
   </si>
@@ -49,6 +52,9 @@
     <t>aircrack-ng</t>
   </si>
   <si>
+    <t>beef</t>
+  </si>
+  <si>
     <t>bully</t>
   </si>
   <si>
@@ -88,9 +94,15 @@
     <t>sem instalação</t>
   </si>
   <si>
+    <t>joomscan</t>
+  </si>
+  <si>
     <t>linset</t>
   </si>
   <si>
+    <t>macchanger</t>
+  </si>
+  <si>
     <t>metasploit-x86</t>
   </si>
   <si>
@@ -133,13 +145,13 @@
     <t>t50</t>
   </si>
   <si>
+    <t>vega</t>
+  </si>
+  <si>
     <t>wpscan</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>instalação do bundler falha</t>
+    <t>permissao</t>
   </si>
   <si>
     <t>xampp</t>
@@ -156,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,9 +199,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +221,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -210,63 +313,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,50 +333,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -337,25 +349,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,133 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,17 +552,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +576,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -585,7 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,156 +634,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1094,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1180,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1189,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1202,25 +1214,25 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1233,11 +1245,8 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1249,6 +1258,9 @@
       </c>
       <c r="D9" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1279,12 +1291,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1292,11 +1304,8 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1309,8 +1318,11 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1323,11 +1335,8 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1340,22 +1349,25 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1377,7 +1389,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -1391,7 +1403,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -1405,7 +1417,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1414,21 +1426,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1450,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1459,18 +1468,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1478,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1515,21 +1527,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1560,7 +1569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1574,15 +1583,12 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1596,7 +1602,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1610,21 +1616,84 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H45">
-    <sortCondition ref="A2"/>
+  <autoFilter ref="A1:H38"/>
+  <sortState ref="A3:H36">
+    <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,6 +199,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -213,6 +244,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -220,119 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,181 +349,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,36 +561,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -611,11 +581,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,147 +610,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B$1:B$1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1370,18 +1370,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1454,7 +1457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1466,6 +1469,9 @@
       </c>
       <c r="D23" t="s">
         <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,13 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -213,6 +206,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -221,6 +259,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -230,75 +320,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,28 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,181 +349,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,35 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -592,6 +563,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,8 +594,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,139 +639,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1420,7 +1420,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1434,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,6 +190,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -198,32 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,105 +333,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,55 +343,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,127 +493,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,17 +543,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,11 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,20 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,157 +645,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1108,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1160,7 +1172,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -1188,7 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -1232,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1244,6 +1256,9 @@
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1278,7 +1293,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -1323,7 +1338,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
@@ -1402,7 +1417,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -1534,7 +1549,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
@@ -1548,7 +1563,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
@@ -1562,7 +1577,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
@@ -1593,7 +1608,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
@@ -1621,7 +1636,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
@@ -1655,7 +1670,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="s">
@@ -1669,11 +1684,11 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1683,7 +1698,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="s">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>package</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>wpscan</t>
-  </si>
-  <si>
-    <t>permissao</t>
   </si>
   <si>
     <t>xampp</t>
@@ -169,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,6 +187,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -199,40 +289,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,31 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,52 +330,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,13 +346,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,169 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +537,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,6 +574,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -572,21 +610,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,32 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -645,145 +642,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1649,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1665,13 +1662,10 @@
       <c r="E35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1685,7 +1679,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8385"/>
+    <workbookView windowWidth="14700" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>package</t>
   </si>
@@ -115,10 +115,22 @@
     <t>nmap</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>versão desatualizada</t>
+  </si>
+  <si>
     <t>patator</t>
   </si>
   <si>
+    <t>atualizar dependencias</t>
+  </si>
+  <si>
     <t>pompem</t>
+  </si>
+  <si>
+    <t>requirements erro</t>
   </si>
   <si>
     <t>proxychains</t>
@@ -165,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,24 +208,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,11 +246,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,14 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -258,74 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +364,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,37 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,121 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +571,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,32 +580,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -629,6 +615,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -642,142 +654,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -861,10 +873,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="DEDEDE"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="333333"/>
+        <a:sysClr val="window" lastClr="F7F7F7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1117,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1176,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1190,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1218,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1240,8 +1252,11 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1249,12 +1264,15 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1266,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1283,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1297,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1317,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1325,12 +1343,15 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1342,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1356,12 +1377,15 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1373,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1382,7 +1406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1390,12 +1414,15 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1407,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -1427,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1435,13 +1462,16 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1449,10 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1463,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1477,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1485,41 +1518,62 @@
       <c r="E23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1533,7 +1587,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1547,7 +1601,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
@@ -1561,7 +1615,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1575,7 +1629,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1587,26 +1641,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1620,7 +1677,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1634,7 +1691,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1648,13 +1705,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1665,7 +1722,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1679,13 +1736,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1693,7 +1750,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14700" windowHeight="7860"/>
+    <workbookView windowWidth="20400" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -199,6 +199,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -207,11 +291,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,21 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -245,103 +342,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -358,31 +358,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,19 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,103 +520,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,17 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,24 +578,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,11 +634,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,8 +644,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,152 +654,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +807,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -815,15 +818,15 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
+    <cellStyle name="60% - Accent3" xfId="9" builtinId="40"/>
     <cellStyle name="Accent4" xfId="10" builtinId="41"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
     <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
@@ -832,37 +835,37 @@
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Porcentagem" xfId="18" builtinId="5"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="27" builtinId="4"/>
+    <cellStyle name="Check Cell" xfId="28" builtinId="23"/>
+    <cellStyle name="Good" xfId="29" builtinId="26"/>
+    <cellStyle name="Calculation" xfId="30" builtinId="22"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="60% - Accent6" xfId="33" builtinId="52"/>
+    <cellStyle name="Hyperlink seguido" xfId="34" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="35" builtinId="7"/>
+    <cellStyle name="Note" xfId="36" builtinId="10"/>
+    <cellStyle name="Input" xfId="37" builtinId="20"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Comma [0]" xfId="42" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="43" builtinId="50"/>
+    <cellStyle name="Title" xfId="44" builtinId="15"/>
     <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
     <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Heading 4" xfId="47" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -873,10 +876,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="DEDEDE"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="F7F7F7"/>
+        <a:sysClr val="window" lastClr="333333"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1129,8 +1132,8 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -1721,21 +1724,21 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B37" t="s">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -180,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -207,16 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -224,10 +216,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,10 +238,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,22 +286,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,29 +313,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -337,17 +337,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +571,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,15 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -661,164 +672,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -2110,20 +2110,20 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>11</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>package</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>metasploit</t>
+  </si>
+  <si>
+    <t>nipe</t>
   </si>
   <si>
     <t>nikto</t>
@@ -186,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -273,6 +276,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -281,11 +391,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,120 +407,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,43 +429,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,121 +585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +660,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -698,15 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -730,168 +748,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -906,7 +909,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1502,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>12</v>
@@ -1629,7 +1632,9 @@
       <c r="K10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="12"/>
     </row>
@@ -1728,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>12</v>
@@ -2071,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>13</v>
@@ -2112,12 +2117,8 @@
       <c r="J23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="12"/>
     </row>
@@ -2144,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>12</v>
@@ -2159,13 +2160,11 @@
         <v>18</v>
       </c>
       <c r="M24" s="10"/>
-      <c r="N24" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
@@ -2195,51 +2194,57 @@
         <v>13</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
@@ -2264,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>12</v>
@@ -2300,7 +2305,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>12</v>
@@ -2336,7 +2341,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>12</v>
@@ -2354,16 +2359,16 @@
         <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>13</v>
@@ -2408,7 +2413,7 @@
         <v>13</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>12</v>
@@ -2416,12 +2421,8 @@
       <c r="J31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="10"/>
       <c r="N31" s="12"/>
     </row>
@@ -2430,16 +2431,16 @@
         <v>46</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>13</v>
@@ -2448,7 +2449,7 @@
         <v>13</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>12</v>
@@ -2456,8 +2457,12 @@
       <c r="J32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="M32" s="10"/>
       <c r="N32" s="12"/>
     </row>
@@ -2466,16 +2471,16 @@
         <v>47</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>13</v>
@@ -2564,9 +2569,7 @@
       <c r="J35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="12"/>
@@ -2602,7 +2605,9 @@
       <c r="J36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="12"/>
@@ -2648,16 +2653,16 @@
         <v>52</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>13</v>
@@ -2666,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>12</v>
@@ -2714,6 +2719,42 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A3:N36">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>package</t>
   </si>
@@ -52,7 +52,7 @@
     <t>x86_64</t>
   </si>
   <si>
-    <t>3vilTwinAttacker</t>
+    <t>3vilTiwnAttacker</t>
   </si>
   <si>
     <t>done</t>
@@ -61,6 +61,12 @@
     <t>pending</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>None type dependencies</t>
+  </si>
+  <si>
     <t>aircrack-ng</t>
   </si>
   <si>
@@ -70,12 +76,12 @@
     <t>bully</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cangibrina</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>cmsmap</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
   </si>
   <si>
     <t>pompem</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>requirements erro</t>
@@ -189,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -276,6 +279,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -285,7 +304,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,125 +416,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,19 +432,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,138 +600,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,24 +613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,11 +663,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,21 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -709,192 +751,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1406,13 +1409,17 @@
         <v>13</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="M4" s="10"/>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
@@ -1448,7 +1455,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1484,7 +1491,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
@@ -1514,13 +1521,15 @@
         <v>13</v>
       </c>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1550,57 +1559,57 @@
         <v>13</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
@@ -1630,17 +1639,17 @@
         <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
@@ -1676,7 +1685,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1712,7 +1721,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1748,7 +1757,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>12</v>
@@ -1778,17 +1787,17 @@
         <v>13</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
@@ -1824,7 +1833,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -1854,17 +1863,17 @@
         <v>13</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>12</v>
@@ -1897,12 +1906,12 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1932,17 +1941,17 @@
         <v>13</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
@@ -1978,7 +1987,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -2014,7 +2023,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
@@ -2044,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -2052,7 +2061,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>12</v>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
@@ -2124,7 +2133,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
@@ -2154,17 +2163,17 @@
         <v>13</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
@@ -2194,19 +2203,19 @@
         <v>13</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
@@ -2236,19 +2245,19 @@
         <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -2284,7 +2293,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -2320,7 +2329,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -2356,7 +2365,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -2392,7 +2401,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
@@ -2428,7 +2437,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>12</v>
@@ -2458,17 +2467,17 @@
         <v>13</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -2504,7 +2513,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>12</v>
@@ -2540,7 +2549,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>12</v>
@@ -2576,7 +2585,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>12</v>
@@ -2606,7 +2615,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -2614,7 +2623,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
@@ -2650,7 +2659,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
@@ -2686,7 +2695,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -2722,7 +2731,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>package</t>
   </si>
@@ -127,7 +127,13 @@
     <t>nipe</t>
   </si>
   <si>
+    <t>program isn't working</t>
+  </si>
+  <si>
     <t>nikto</t>
+  </si>
+  <si>
+    <t>must use custom symlink</t>
   </si>
   <si>
     <t>nmap</t>
@@ -193,9 +199,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -279,6 +285,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -287,11 +398,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,104 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +428,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,13 +438,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +546,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,13 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,61 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,67 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,8 +663,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,15 +734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -702,52 +749,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,148 +762,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,7 +1265,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1980,8 +1986,12 @@
       <c r="J19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="12"/>
     </row>
@@ -2055,7 +2065,9 @@
       <c r="K21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="10"/>
+      <c r="L21" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="M21" s="10"/>
       <c r="N21" s="12"/>
     </row>
@@ -2090,14 +2102,20 @@
       <c r="J22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="M22" s="10"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
@@ -2126,14 +2144,20 @@
       <c r="J23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="M23" s="10"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
@@ -2173,7 +2197,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
@@ -2210,12 +2234,12 @@
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
@@ -2252,12 +2276,12 @@
       </c>
       <c r="M26" s="10"/>
       <c r="N26" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -2293,7 +2317,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -2329,7 +2353,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -2365,7 +2389,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -2401,7 +2425,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
@@ -2437,7 +2461,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>12</v>
@@ -2477,7 +2501,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -2513,7 +2537,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>12</v>
@@ -2549,7 +2573,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>12</v>
@@ -2585,7 +2609,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>12</v>
@@ -2623,7 +2647,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
@@ -2659,7 +2683,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
@@ -2695,7 +2719,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -2731,7 +2755,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -70,13 +70,13 @@
     <t>aircrack-ng</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>beef</t>
   </si>
   <si>
     <t>bully</t>
-  </si>
-  <si>
-    <t>ok</t>
   </si>
   <si>
     <t>cangibrina</t>
@@ -199,8 +199,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -285,6 +285,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -293,6 +301,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -302,128 +423,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,58 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,7 +703,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,148 +762,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1455,13 +1455,15 @@
         <v>13</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1497,7 +1499,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
@@ -1528,7 +1530,7 @@
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="12"/>
@@ -1565,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="12"/>
@@ -1605,10 +1607,10 @@
         <v>13</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="12"/>
@@ -1645,10 +1647,10 @@
         <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="12"/>
@@ -1793,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="12"/>
@@ -1869,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="12"/>
@@ -1947,10 +1949,10 @@
         <v>13</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="12"/>
@@ -1987,10 +1989,10 @@
         <v>13</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19" s="10"/>
       <c r="N19" s="12"/>
@@ -2063,10 +2065,10 @@
         <v>13</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="12"/>
@@ -2103,10 +2105,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="12" t="s">
@@ -2187,10 +2189,10 @@
         <v>13</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="10"/>
       <c r="N24" s="12"/>
@@ -2227,10 +2229,10 @@
         <v>13</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="12" t="s">
@@ -2491,10 +2493,10 @@
         <v>13</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" s="10"/>
       <c r="N32" s="12"/>
@@ -2567,7 +2569,9 @@
         <v>13</v>
       </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="12"/>
     </row>
@@ -2639,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -198,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -294,10 +294,17 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,7 +317,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,23 +348,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,16 +362,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,8 +384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,6 +403,21 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,36 +428,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -438,19 +438,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,157 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,22 +664,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,11 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +725,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -748,117 +757,108 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,40 +867,40 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1275,7 +1275,7 @@
     <col min="11" max="11" width="7.1" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.2" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.9" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.8" style="2"/>
   </cols>
   <sheetData>
@@ -2606,7 +2606,9 @@
       <c r="J35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="12"/>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>package</t>
   </si>
@@ -91,6 +91,9 @@
     <t>dnsenum</t>
   </si>
   <si>
+    <t>taking too long</t>
+  </si>
+  <si>
     <t>ettercap</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>hydra</t>
   </si>
   <si>
+    <t>can't find libnpc-dev</t>
+  </si>
+  <si>
     <t>inurlbr</t>
   </si>
   <si>
@@ -146,9 +152,6 @@
   </si>
   <si>
     <t>pompem</t>
-  </si>
-  <si>
-    <t>requirements erro</t>
   </si>
   <si>
     <t>proxychains</t>
@@ -198,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -294,7 +297,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -303,6 +322,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +367,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +411,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,74 +426,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +441,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +525,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,157 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,6 +659,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,17 +717,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,34 +746,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -762,145 +765,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -1689,11 +1692,13 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
@@ -1729,7 +1734,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1765,7 +1770,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>12</v>
@@ -1805,7 +1810,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
@@ -1837,11 +1842,13 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>12</v>
@@ -1881,7 +1888,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>12</v>
@@ -1914,12 +1921,12 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1959,7 +1966,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>12</v>
@@ -1999,7 +2006,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -2035,7 +2042,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>12</v>
@@ -2075,7 +2082,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>12</v>
@@ -2112,12 +2119,12 @@
       </c>
       <c r="M22" s="10"/>
       <c r="N22" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
@@ -2154,12 +2161,12 @@
       </c>
       <c r="M23" s="10"/>
       <c r="N23" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
@@ -2199,7 +2206,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
@@ -2236,12 +2243,12 @@
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
@@ -2271,19 +2278,17 @@
         <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M26" s="10"/>
-      <c r="N26" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
@@ -2319,7 +2324,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>13</v>
@@ -2355,7 +2360,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>13</v>
@@ -2391,7 +2396,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
@@ -2427,7 +2432,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>12</v>
@@ -2463,7 +2468,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>12</v>
@@ -2503,7 +2508,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
@@ -2539,7 +2544,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>12</v>
@@ -2577,7 +2582,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>12</v>
@@ -2615,7 +2620,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>12</v>
@@ -2653,7 +2658,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>12</v>
@@ -2689,7 +2694,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>12</v>
@@ -2725,7 +2730,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -2761,7 +2766,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8355"/>
+    <workbookView windowWidth="20400" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>package</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>wifite</t>
+  </si>
+  <si>
+    <t>findmyhash</t>
+  </si>
+  <si>
+    <t>httplib2</t>
   </si>
 </sst>
 </file>
@@ -201,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -296,6 +302,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -306,6 +349,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -319,118 +437,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,43 +447,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,19 +591,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,115 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,16 +670,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,17 +693,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,9 +719,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,19 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,153 +751,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,15 +959,15 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="3" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="8" builtinId="43"/>
-    <cellStyle name="60% - Accent3" xfId="9" builtinId="40"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
     <cellStyle name="Accent4" xfId="10" builtinId="41"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
     <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
@@ -970,37 +976,37 @@
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="Porcentagem" xfId="18" builtinId="5"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="20% - Accent3" xfId="26" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="27" builtinId="4"/>
-    <cellStyle name="Check Cell" xfId="28" builtinId="23"/>
-    <cellStyle name="Good" xfId="29" builtinId="26"/>
-    <cellStyle name="Calculation" xfId="30" builtinId="22"/>
-    <cellStyle name="Total" xfId="31" builtinId="25"/>
-    <cellStyle name="Output" xfId="32" builtinId="21"/>
-    <cellStyle name="60% - Accent6" xfId="33" builtinId="52"/>
-    <cellStyle name="Hyperlink seguido" xfId="34" builtinId="9"/>
-    <cellStyle name="Moeda [0]" xfId="35" builtinId="7"/>
-    <cellStyle name="Note" xfId="36" builtinId="10"/>
-    <cellStyle name="Input" xfId="37" builtinId="20"/>
-    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Comma [0]" xfId="42" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="43" builtinId="50"/>
-    <cellStyle name="Title" xfId="44" builtinId="15"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
     <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
     <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Heading 4" xfId="47" builtinId="19"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1265,10 +1271,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -2799,6 +2805,46 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:N36">

--- a/package_status.xlsx
+++ b/package_status.xlsx
@@ -207,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -296,7 +296,61 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +363,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,29 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -354,89 +437,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,187 +447,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +670,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -684,11 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +726,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,6 +749,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -727,189 +766,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,10 +1017,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="DEDEDE"/>
+        <a:sysClr val="windowText" lastClr="555555"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="333333"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75"/>
@@ -2441,16 +2441,16 @@
         <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>13</v>
